--- a/media/samohvalov_download_ur.xlsx
+++ b/media/samohvalov_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739E6C19-C9EC-6A44-8C77-50C251F0F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5F307-5DB5-BE41-AABF-ABAE764C0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,12 +757,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -847,6 +841,33 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,32 +877,11 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1224,26 +1224,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="7.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="43" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="41" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="6" style="16" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="42" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" style="17" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="41"/>
+    <col min="13" max="13" width="10.1640625" style="43" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="44" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="19">
@@ -1278,14 +1278,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="79"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A3" s="12"/>
@@ -1298,14 +1298,14 @@
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A4" s="12"/>
@@ -1333,14 +1333,14 @@
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A6" s="12"/>
@@ -1359,83 +1359,85 @@
       <c r="N6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="C7" s="39"/>
-      <c r="D7" s="71" t="s">
+      <c r="A7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="40"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="M8" s="45">
+      <c r="M8" s="43">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="47" customFormat="1" ht="112">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:14" s="45" customFormat="1" ht="112">
+      <c r="A9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="L9" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="61" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
@@ -1443,15 +1445,15 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
@@ -1459,15 +1461,15 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
@@ -1475,31 +1477,31 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
@@ -1507,15 +1509,15 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
@@ -1523,31 +1525,31 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
@@ -1555,31 +1557,31 @@
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="3"/>
       <c r="N19" s="2"/>
     </row>
@@ -1587,15 +1589,15 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
     </row>
@@ -1603,15 +1605,15 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="51"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="54"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
@@ -1620,14 +1622,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="54"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
     </row>
@@ -1635,15 +1637,15 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
     </row>
@@ -1651,15 +1653,15 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="54"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
     </row>
@@ -1667,15 +1669,15 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="54"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2"/>
     </row>
@@ -1683,15 +1685,15 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2"/>
     </row>
@@ -1699,15 +1701,15 @@
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
       <c r="M27" s="3"/>
       <c r="N27" s="2"/>
     </row>
@@ -1715,15 +1717,15 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="3"/>
       <c r="N28" s="2"/>
     </row>
@@ -1731,15 +1733,15 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
       <c r="M29" s="3"/>
       <c r="N29" s="2"/>
     </row>
@@ -1747,15 +1749,15 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
       <c r="M30" s="3"/>
       <c r="N30" s="2"/>
     </row>
@@ -1763,15 +1765,15 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2"/>
     </row>
@@ -1779,15 +1781,15 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2"/>
     </row>
@@ -1795,15 +1797,15 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
       <c r="M33" s="3"/>
       <c r="N33" s="2"/>
     </row>
@@ -1811,15 +1813,15 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2"/>
     </row>
@@ -1827,15 +1829,15 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2"/>
     </row>
@@ -1843,15 +1845,15 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
     </row>
@@ -1859,15 +1861,15 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
     </row>
@@ -1875,15 +1877,15 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
       <c r="M38" s="3"/>
       <c r="N38" s="2"/>
     </row>
@@ -1891,15 +1893,15 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="3"/>
       <c r="N39" s="2"/>
     </row>
@@ -1907,15 +1909,15 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="54"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="3"/>
       <c r="N40" s="2"/>
     </row>
@@ -1923,15 +1925,15 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="54"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="3"/>
       <c r="N41" s="2"/>
     </row>
@@ -1939,15 +1941,15 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2"/>
     </row>
@@ -1955,15 +1957,15 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="54"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="3"/>
       <c r="N43" s="2"/>
     </row>
@@ -1971,15 +1973,15 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="54"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="3"/>
       <c r="N44" s="2"/>
     </row>
@@ -1987,15 +1989,15 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="54"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
     </row>
@@ -2003,15 +2005,15 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="3"/>
       <c r="N46" s="2"/>
     </row>
@@ -2019,15 +2021,15 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="3"/>
       <c r="N47" s="2"/>
     </row>
@@ -2035,15 +2037,15 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="54"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="3"/>
       <c r="N48" s="2"/>
     </row>
@@ -2051,15 +2053,15 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="49"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="54"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="3"/>
       <c r="N49" s="2"/>
     </row>
@@ -2067,15 +2069,15 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="54"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
     </row>
@@ -2083,15 +2085,15 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="51"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="54"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
     </row>
@@ -2099,15 +2101,15 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
       <c r="M52" s="3"/>
       <c r="N52" s="2"/>
     </row>
@@ -2115,15 +2117,15 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="54"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="52"/>
       <c r="M53" s="3"/>
       <c r="N53" s="2"/>
     </row>
@@ -2131,15 +2133,15 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="49"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="54"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
       <c r="M54" s="3"/>
       <c r="N54" s="2"/>
     </row>
@@ -2147,15 +2149,15 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="54"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2"/>
     </row>
@@ -2163,15 +2165,15 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="54"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2"/>
     </row>
@@ -2179,15 +2181,15 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="54"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="52"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
     </row>
@@ -2195,15 +2197,15 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="54"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="52"/>
       <c r="M58" s="3"/>
       <c r="N58" s="2"/>
     </row>
@@ -2211,15 +2213,15 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="51"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="54"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="52"/>
       <c r="M59" s="3"/>
       <c r="N59" s="2"/>
     </row>
@@ -2227,15 +2229,15 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="54"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="52"/>
       <c r="M60" s="3"/>
       <c r="N60" s="2"/>
     </row>
@@ -2243,15 +2245,15 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="51"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="54"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
       <c r="M61" s="3"/>
       <c r="N61" s="2"/>
     </row>
@@ -2259,15 +2261,15 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="54"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="52"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2"/>
     </row>
@@ -2275,15 +2277,15 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="51"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="54"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
       <c r="M63" s="3"/>
       <c r="N63" s="2"/>
     </row>
@@ -2291,15 +2293,15 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="54"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
       <c r="M64" s="3"/>
       <c r="N64" s="2"/>
     </row>
@@ -2307,15 +2309,15 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="54"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
       <c r="M65" s="3"/>
       <c r="N65" s="2"/>
     </row>
@@ -2323,15 +2325,15 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="49"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="54"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
       <c r="M66" s="3"/>
       <c r="N66" s="2"/>
     </row>
@@ -2339,15 +2341,15 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="51"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="54"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
       <c r="M67" s="3"/>
       <c r="N67" s="2"/>
     </row>
@@ -2355,15 +2357,15 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="49"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="54"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
       <c r="M68" s="3"/>
       <c r="N68" s="2"/>
     </row>
@@ -2371,15 +2373,15 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="51"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="54"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
       <c r="M69" s="3"/>
       <c r="N69" s="2"/>
     </row>
@@ -2387,15 +2389,15 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="51"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="54"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
       <c r="M70" s="3"/>
       <c r="N70" s="5"/>
     </row>
@@ -2403,15 +2405,15 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="51"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="54"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
       <c r="M71" s="3"/>
       <c r="N71" s="2"/>
     </row>
@@ -2419,15 +2421,15 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="51"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="54"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
       <c r="M72" s="3"/>
       <c r="N72" s="2"/>
     </row>
@@ -2435,15 +2437,15 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="51"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="54"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
       <c r="M73" s="3"/>
       <c r="N73" s="2"/>
     </row>
@@ -2451,15 +2453,15 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="51"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="54"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
       <c r="M74" s="3"/>
       <c r="N74" s="2"/>
     </row>
@@ -2467,15 +2469,15 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="54"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
       <c r="M75" s="3"/>
       <c r="N75" s="2"/>
     </row>
@@ -2483,79 +2485,79 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="49"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="54"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="58"/>
+      <c r="N76" s="56"/>
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="54"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="52"/>
       <c r="M77" s="3"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="51"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="49"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="54"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
       <c r="M78" s="3"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="49"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="54"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
       <c r="M79" s="3"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="51"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="49"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="54"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
       <c r="M80" s="3"/>
       <c r="N80" s="2"/>
     </row>
@@ -2563,31 +2565,31 @@
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="51"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="49"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="54"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
       <c r="M81" s="3"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="51"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="49"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="54"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="52"/>
       <c r="M82" s="3"/>
       <c r="N82" s="2"/>
     </row>
@@ -2595,15 +2597,15 @@
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="51"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="49"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="54"/>
+      <c r="H83" s="50"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="52"/>
       <c r="M83" s="3"/>
       <c r="N83" s="2"/>
     </row>
@@ -2611,15 +2613,15 @@
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="51"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="49"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="54"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="52"/>
       <c r="M84" s="3"/>
       <c r="N84" s="2"/>
     </row>
@@ -2627,15 +2629,15 @@
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="51"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="54"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="52"/>
       <c r="M85" s="3"/>
       <c r="N85" s="2"/>
     </row>
@@ -2643,15 +2645,15 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="54"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="52"/>
       <c r="M86" s="3"/>
       <c r="N86" s="2"/>
     </row>
@@ -2659,15 +2661,15 @@
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="49"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="54"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="52"/>
       <c r="M87" s="3"/>
       <c r="N87" s="2"/>
     </row>
@@ -2675,15 +2677,15 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="49"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="54"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="52"/>
       <c r="M88" s="3"/>
       <c r="N88" s="2"/>
     </row>
@@ -2691,15 +2693,15 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="49"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="54"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="52"/>
       <c r="M89" s="3"/>
       <c r="N89" s="2"/>
     </row>
@@ -2707,15 +2709,15 @@
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="49"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="54"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="52"/>
       <c r="M90" s="3"/>
       <c r="N90" s="2"/>
     </row>
@@ -2723,15 +2725,15 @@
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="51"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="49"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="54"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="52"/>
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
     </row>
@@ -2739,15 +2741,15 @@
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="51"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="49"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="54"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="52"/>
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
     </row>
@@ -2755,15 +2757,15 @@
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="51"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="49"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="54"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="52"/>
       <c r="M93" s="3"/>
       <c r="N93" s="2"/>
     </row>
@@ -2771,15 +2773,15 @@
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="51"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="49"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="54"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="52"/>
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
     </row>
@@ -2787,15 +2789,15 @@
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="51"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="49"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="54"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="52"/>
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
     </row>
@@ -2803,15 +2805,15 @@
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="51"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="49"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="54"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="52"/>
       <c r="M96" s="3"/>
       <c r="N96" s="2"/>
     </row>
@@ -2819,31 +2821,31 @@
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="51"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="49"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="54"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="52"/>
       <c r="M97" s="3"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" s="1" customFormat="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="51"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="54"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="52"/>
       <c r="M98" s="3"/>
       <c r="N98" s="2"/>
     </row>
@@ -2851,15 +2853,15 @@
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="51"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="49"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="54"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="52"/>
       <c r="M99" s="3"/>
       <c r="N99" s="2"/>
     </row>
@@ -2867,15 +2869,15 @@
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="51"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="49"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="54"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="52"/>
       <c r="M100" s="3"/>
       <c r="N100" s="2"/>
     </row>
@@ -2883,15 +2885,15 @@
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="55"/>
+      <c r="D101" s="53"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="51"/>
+      <c r="F101" s="49"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="53"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="53"/>
-      <c r="L101" s="54"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="52"/>
       <c r="M101" s="3"/>
       <c r="N101" s="2"/>
     </row>
@@ -2899,15 +2901,15 @@
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="55"/>
+      <c r="D102" s="53"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="51"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="53"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="53"/>
-      <c r="L102" s="54"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="52"/>
       <c r="M102" s="3"/>
       <c r="N102" s="2"/>
     </row>
@@ -2915,15 +2917,15 @@
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="51"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="53"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="53"/>
-      <c r="L103" s="54"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="52"/>
       <c r="M103" s="3"/>
       <c r="N103" s="2"/>
     </row>
@@ -2931,15 +2933,15 @@
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="51"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="54"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="52"/>
       <c r="M104" s="3"/>
       <c r="N104" s="2"/>
     </row>
@@ -2947,15 +2949,15 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="60"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="53"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="53"/>
-      <c r="L105" s="54"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="52"/>
       <c r="M105" s="3"/>
       <c r="N105" s="2"/>
     </row>
@@ -2963,15 +2965,15 @@
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="61"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="59"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="53"/>
-      <c r="L106" s="54"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="52"/>
       <c r="M106" s="3"/>
       <c r="N106" s="2"/>
     </row>
@@ -2979,15 +2981,15 @@
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="61"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="59"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="53"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="53"/>
-      <c r="L107" s="54"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="52"/>
       <c r="M107" s="3"/>
       <c r="N107" s="2"/>
     </row>
@@ -2995,88 +2997,88 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="59"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="57"/>
       <c r="F108" s="4"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="53"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="51"/>
       <c r="J108" s="10"/>
-      <c r="K108" s="53"/>
-      <c r="L108" s="54"/>
+      <c r="K108" s="51"/>
+      <c r="L108" s="52"/>
       <c r="M108" s="3"/>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" s="16" customFormat="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="78"/>
-      <c r="L109" s="76"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="80"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
+      <c r="K109" s="73"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="75"/>
     </row>
     <row r="110" spans="1:14" s="16" customFormat="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="43"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="24"/>
-      <c r="F110" s="62"/>
-      <c r="H110" s="44"/>
+      <c r="F110" s="60"/>
+      <c r="H110" s="42"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="46"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="44"/>
     </row>
     <row r="111" spans="1:14" s="16" customFormat="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="43"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="41"/>
       <c r="E111" s="24"/>
-      <c r="F111" s="62"/>
-      <c r="H111" s="44"/>
+      <c r="F111" s="60"/>
+      <c r="H111" s="42"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="46"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="44"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="F112" s="62"/>
+      <c r="F112" s="60"/>
     </row>
     <row r="113" spans="1:14">
-      <c r="F113" s="62"/>
+      <c r="F113" s="60"/>
     </row>
     <row r="114" spans="1:14" s="16" customFormat="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="43"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="41"/>
       <c r="E114" s="24"/>
-      <c r="F114" s="62"/>
-      <c r="H114" s="44"/>
+      <c r="F114" s="60"/>
+      <c r="H114" s="42"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="46"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I5:N5"/>
-    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:A108">
     <cfRule type="duplicateValues" dxfId="0" priority="18" stopIfTrue="1"/>

--- a/media/samohvalov_download_ur.xlsx
+++ b/media/samohvalov_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5F307-5DB5-BE41-AABF-ABAE764C0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B5C8D-AA0E-1941-98BE-FC8B7B37B95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Адрес</t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t>Наименование клиента</t>
@@ -703,9 +700,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +863,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -878,10 +875,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1225,25 +1222,25 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="7.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="23" customWidth="1"/>
     <col min="6" max="6" width="6.83203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="6" style="16" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="41" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" style="17" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="43" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="44" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="39"/>
+    <col min="13" max="13" width="10.1640625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="43" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="19">
@@ -1262,10 +1259,11 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="21"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A2" s="12"/>
@@ -1278,14 +1276,14 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A3" s="12"/>
@@ -1310,29 +1308,29 @@
     <row r="4" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" ht="19">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="77" t="s">
         <v>7</v>
       </c>
@@ -1345,23 +1343,21 @@
     <row r="6" spans="1:14" s="20" customFormat="1" ht="19">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="38"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="18">
-      <c r="A7" s="78" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="78"/>
       <c r="B7" s="78"/>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
@@ -1376,68 +1372,63 @@
       <c r="M7" s="78"/>
       <c r="N7" s="78"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="M8" s="43">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="45" customFormat="1" ht="112">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:14" s="44" customFormat="1" ht="112">
+      <c r="A9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="66" t="s">
+      <c r="F9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="G9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="H9" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="65" t="s">
-        <v>23</v>
+      <c r="M9" s="64" t="s">
+        <v>22</v>
       </c>
-      <c r="N9" s="61" t="s">
-        <v>22</v>
+      <c r="N9" s="60" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
@@ -1445,15 +1436,15 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
@@ -1461,15 +1452,15 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
@@ -1477,31 +1468,31 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
@@ -1509,15 +1500,15 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
@@ -1525,31 +1516,31 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
@@ -1557,31 +1548,31 @@
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="3"/>
       <c r="N19" s="2"/>
     </row>
@@ -1589,15 +1580,15 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
     </row>
@@ -1605,15 +1596,15 @@
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
@@ -1622,14 +1613,14 @@
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
     </row>
@@ -1637,15 +1628,15 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
     </row>
@@ -1653,15 +1644,15 @@
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
     </row>
@@ -1669,15 +1660,15 @@
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2"/>
     </row>
@@ -1685,15 +1676,15 @@
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="3"/>
       <c r="N26" s="2"/>
     </row>
@@ -1701,15 +1692,15 @@
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="M27" s="3"/>
       <c r="N27" s="2"/>
     </row>
@@ -1717,15 +1708,15 @@
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
       <c r="M28" s="3"/>
       <c r="N28" s="2"/>
     </row>
@@ -1733,15 +1724,15 @@
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="3"/>
       <c r="N29" s="2"/>
     </row>
@@ -1749,15 +1740,15 @@
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
       <c r="M30" s="3"/>
       <c r="N30" s="2"/>
     </row>
@@ -1765,15 +1756,15 @@
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
       <c r="M31" s="3"/>
       <c r="N31" s="2"/>
     </row>
@@ -1781,15 +1772,15 @@
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
       <c r="M32" s="3"/>
       <c r="N32" s="2"/>
     </row>
@@ -1797,15 +1788,15 @@
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
       <c r="M33" s="3"/>
       <c r="N33" s="2"/>
     </row>
@@ -1813,15 +1804,15 @@
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
       <c r="M34" s="3"/>
       <c r="N34" s="2"/>
     </row>
@@ -1829,15 +1820,15 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
       <c r="M35" s="3"/>
       <c r="N35" s="2"/>
     </row>
@@ -1845,15 +1836,15 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="51"/>
       <c r="M36" s="3"/>
       <c r="N36" s="2"/>
     </row>
@@ -1861,15 +1852,15 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
       <c r="M37" s="3"/>
       <c r="N37" s="2"/>
     </row>
@@ -1877,15 +1868,15 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
       <c r="M38" s="3"/>
       <c r="N38" s="2"/>
     </row>
@@ -1893,15 +1884,15 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="3"/>
       <c r="N39" s="2"/>
     </row>
@@ -1909,15 +1900,15 @@
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="51"/>
       <c r="M40" s="3"/>
       <c r="N40" s="2"/>
     </row>
@@ -1925,15 +1916,15 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="3"/>
       <c r="N41" s="2"/>
     </row>
@@ -1941,15 +1932,15 @@
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="3"/>
       <c r="N42" s="2"/>
     </row>
@@ -1957,15 +1948,15 @@
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
       <c r="M43" s="3"/>
       <c r="N43" s="2"/>
     </row>
@@ -1973,15 +1964,15 @@
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="51"/>
       <c r="M44" s="3"/>
       <c r="N44" s="2"/>
     </row>
@@ -1989,15 +1980,15 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="49"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="52"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="51"/>
       <c r="M45" s="3"/>
       <c r="N45" s="2"/>
     </row>
@@ -2005,15 +1996,15 @@
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
       <c r="M46" s="3"/>
       <c r="N46" s="2"/>
     </row>
@@ -2021,15 +2012,15 @@
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
       <c r="M47" s="3"/>
       <c r="N47" s="2"/>
     </row>
@@ -2037,15 +2028,15 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="51"/>
       <c r="M48" s="3"/>
       <c r="N48" s="2"/>
     </row>
@@ -2053,15 +2044,15 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
       <c r="M49" s="3"/>
       <c r="N49" s="2"/>
     </row>
@@ -2069,15 +2060,15 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
       <c r="M50" s="3"/>
       <c r="N50" s="2"/>
     </row>
@@ -2085,15 +2076,15 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
       <c r="M51" s="3"/>
       <c r="N51" s="2"/>
     </row>
@@ -2101,15 +2092,15 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="52"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="51"/>
       <c r="M52" s="3"/>
       <c r="N52" s="2"/>
     </row>
@@ -2117,15 +2108,15 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="51"/>
       <c r="M53" s="3"/>
       <c r="N53" s="2"/>
     </row>
@@ -2133,15 +2124,15 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="51"/>
       <c r="M54" s="3"/>
       <c r="N54" s="2"/>
     </row>
@@ -2149,15 +2140,15 @@
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="52"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="51"/>
       <c r="M55" s="3"/>
       <c r="N55" s="2"/>
     </row>
@@ -2165,15 +2156,15 @@
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="52"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="51"/>
       <c r="M56" s="3"/>
       <c r="N56" s="2"/>
     </row>
@@ -2181,15 +2172,15 @@
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="49"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="52"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="51"/>
       <c r="M57" s="3"/>
       <c r="N57" s="2"/>
     </row>
@@ -2197,15 +2188,15 @@
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="52"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="51"/>
       <c r="M58" s="3"/>
       <c r="N58" s="2"/>
     </row>
@@ -2213,15 +2204,15 @@
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="49"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="52"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="51"/>
       <c r="M59" s="3"/>
       <c r="N59" s="2"/>
     </row>
@@ -2229,15 +2220,15 @@
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="52"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="51"/>
       <c r="M60" s="3"/>
       <c r="N60" s="2"/>
     </row>
@@ -2245,15 +2236,15 @@
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="52"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="51"/>
       <c r="M61" s="3"/>
       <c r="N61" s="2"/>
     </row>
@@ -2261,15 +2252,15 @@
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="52"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="51"/>
       <c r="M62" s="3"/>
       <c r="N62" s="2"/>
     </row>
@@ -2277,15 +2268,15 @@
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="49"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="52"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="51"/>
       <c r="M63" s="3"/>
       <c r="N63" s="2"/>
     </row>
@@ -2293,15 +2284,15 @@
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="49"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="51"/>
       <c r="M64" s="3"/>
       <c r="N64" s="2"/>
     </row>
@@ -2309,15 +2300,15 @@
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="51"/>
       <c r="M65" s="3"/>
       <c r="N65" s="2"/>
     </row>
@@ -2325,15 +2316,15 @@
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="49"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="48"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
       <c r="M66" s="3"/>
       <c r="N66" s="2"/>
     </row>
@@ -2341,15 +2332,15 @@
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="49"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="48"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="51"/>
       <c r="M67" s="3"/>
       <c r="N67" s="2"/>
     </row>
@@ -2357,15 +2348,15 @@
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="49"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="48"/>
       <c r="G68" s="4"/>
       <c r="H68" s="11"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="51"/>
       <c r="M68" s="3"/>
       <c r="N68" s="2"/>
     </row>
@@ -2373,15 +2364,15 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="49"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="48"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="51"/>
       <c r="M69" s="3"/>
       <c r="N69" s="2"/>
     </row>
@@ -2389,15 +2380,15 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="49"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="48"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="51"/>
       <c r="M70" s="3"/>
       <c r="N70" s="5"/>
     </row>
@@ -2405,15 +2396,15 @@
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="49"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="52"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="51"/>
       <c r="M71" s="3"/>
       <c r="N71" s="2"/>
     </row>
@@ -2421,15 +2412,15 @@
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="49"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="48"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="52"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="51"/>
       <c r="M72" s="3"/>
       <c r="N72" s="2"/>
     </row>
@@ -2437,15 +2428,15 @@
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="49"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="48"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="50"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="52"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="51"/>
       <c r="M73" s="3"/>
       <c r="N73" s="2"/>
     </row>
@@ -2453,15 +2444,15 @@
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="49"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="52"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="51"/>
       <c r="M74" s="3"/>
       <c r="N74" s="2"/>
     </row>
@@ -2469,15 +2460,15 @@
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="49"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="52"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="51"/>
       <c r="M75" s="3"/>
       <c r="N75" s="2"/>
     </row>
@@ -2485,79 +2476,79 @@
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="52"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="51"/>
       <c r="M76" s="3"/>
-      <c r="N76" s="56"/>
+      <c r="N76" s="55"/>
     </row>
     <row r="77" spans="1:14" s="1" customFormat="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="52"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="51"/>
       <c r="M77" s="3"/>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" s="1" customFormat="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="49"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="52"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="51"/>
       <c r="M78" s="3"/>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" s="1" customFormat="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="49"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="48"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="52"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="51"/>
       <c r="M79" s="3"/>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" s="1" customFormat="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="49"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="48"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="51"/>
       <c r="M80" s="3"/>
       <c r="N80" s="2"/>
     </row>
@@ -2565,31 +2556,31 @@
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="49"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="48"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="50"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="52"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="51"/>
       <c r="M81" s="3"/>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="49"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="51"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="51"/>
-      <c r="L82" s="52"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="51"/>
       <c r="M82" s="3"/>
       <c r="N82" s="2"/>
     </row>
@@ -2597,15 +2588,15 @@
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="49"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="52"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="51"/>
       <c r="M83" s="3"/>
       <c r="N83" s="2"/>
     </row>
@@ -2613,15 +2604,15 @@
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="49"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="48"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="51"/>
-      <c r="J84" s="51"/>
-      <c r="K84" s="51"/>
-      <c r="L84" s="52"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="51"/>
       <c r="M84" s="3"/>
       <c r="N84" s="2"/>
     </row>
@@ -2629,15 +2620,15 @@
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="49"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="51"/>
-      <c r="J85" s="51"/>
-      <c r="K85" s="51"/>
-      <c r="L85" s="52"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="51"/>
       <c r="M85" s="3"/>
       <c r="N85" s="2"/>
     </row>
@@ -2645,15 +2636,15 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="49"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="48"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="52"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="51"/>
       <c r="M86" s="3"/>
       <c r="N86" s="2"/>
     </row>
@@ -2661,15 +2652,15 @@
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="49"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="48"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="51"/>
-      <c r="J87" s="51"/>
-      <c r="K87" s="51"/>
-      <c r="L87" s="52"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="51"/>
       <c r="M87" s="3"/>
       <c r="N87" s="2"/>
     </row>
@@ -2677,15 +2668,15 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="49"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="48"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="52"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="51"/>
       <c r="M88" s="3"/>
       <c r="N88" s="2"/>
     </row>
@@ -2693,15 +2684,15 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="49"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="48"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="51"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="52"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="50"/>
+      <c r="K89" s="50"/>
+      <c r="L89" s="51"/>
       <c r="M89" s="3"/>
       <c r="N89" s="2"/>
     </row>
@@ -2709,15 +2700,15 @@
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="49"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="47"/>
+      <c r="F90" s="48"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="52"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="51"/>
       <c r="M90" s="3"/>
       <c r="N90" s="2"/>
     </row>
@@ -2725,15 +2716,15 @@
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="49"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="52"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="51"/>
       <c r="M91" s="3"/>
       <c r="N91" s="2"/>
     </row>
@@ -2741,15 +2732,15 @@
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="49"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="48"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="52"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="50"/>
+      <c r="K92" s="50"/>
+      <c r="L92" s="51"/>
       <c r="M92" s="3"/>
       <c r="N92" s="2"/>
     </row>
@@ -2757,15 +2748,15 @@
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="49"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="48"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="52"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="51"/>
       <c r="M93" s="3"/>
       <c r="N93" s="2"/>
     </row>
@@ -2773,15 +2764,15 @@
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="49"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="48"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="52"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="51"/>
       <c r="M94" s="3"/>
       <c r="N94" s="2"/>
     </row>
@@ -2789,15 +2780,15 @@
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="49"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="48"/>
       <c r="G95" s="4"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="51"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="52"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="51"/>
       <c r="M95" s="3"/>
       <c r="N95" s="2"/>
     </row>
@@ -2805,15 +2796,15 @@
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="49"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="4"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="52"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="51"/>
       <c r="M96" s="3"/>
       <c r="N96" s="2"/>
     </row>
@@ -2821,31 +2812,31 @@
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="49"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="48"/>
       <c r="G97" s="4"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="52"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="51"/>
       <c r="M97" s="3"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="1:14" s="1" customFormat="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="49"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="48"/>
       <c r="G98" s="4"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="51"/>
-      <c r="J98" s="51"/>
-      <c r="K98" s="51"/>
-      <c r="L98" s="52"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="51"/>
       <c r="M98" s="3"/>
       <c r="N98" s="2"/>
     </row>
@@ -2853,15 +2844,15 @@
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="49"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="48"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="51"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="52"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="51"/>
       <c r="M99" s="3"/>
       <c r="N99" s="2"/>
     </row>
@@ -2869,15 +2860,15 @@
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="49"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="48"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="51"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="51"/>
-      <c r="L100" s="52"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="51"/>
       <c r="M100" s="3"/>
       <c r="N100" s="2"/>
     </row>
@@ -2885,15 +2876,15 @@
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="53"/>
+      <c r="D101" s="52"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="49"/>
+      <c r="F101" s="48"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="50"/>
-      <c r="I101" s="51"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="52"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="50"/>
+      <c r="L101" s="51"/>
       <c r="M101" s="3"/>
       <c r="N101" s="2"/>
     </row>
@@ -2901,15 +2892,15 @@
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="53"/>
+      <c r="D102" s="52"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="49"/>
+      <c r="F102" s="48"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="50"/>
-      <c r="I102" s="51"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="52"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="51"/>
       <c r="M102" s="3"/>
       <c r="N102" s="2"/>
     </row>
@@ -2917,15 +2908,15 @@
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="49"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="48"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="50"/>
-      <c r="I103" s="51"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="52"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="51"/>
       <c r="M103" s="3"/>
       <c r="N103" s="2"/>
     </row>
@@ -2933,15 +2924,15 @@
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="49"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="48"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="51"/>
-      <c r="J104" s="51"/>
-      <c r="K104" s="51"/>
-      <c r="L104" s="52"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="50"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="51"/>
       <c r="M104" s="3"/>
       <c r="N104" s="2"/>
     </row>
@@ -2949,15 +2940,15 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="58"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="4"/>
-      <c r="H105" s="50"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="52"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="51"/>
       <c r="M105" s="3"/>
       <c r="N105" s="2"/>
     </row>
@@ -2965,15 +2956,15 @@
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="59"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="51"/>
-      <c r="J106" s="51"/>
-      <c r="K106" s="51"/>
-      <c r="L106" s="52"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="51"/>
       <c r="M106" s="3"/>
       <c r="N106" s="2"/>
     </row>
@@ -2981,15 +2972,15 @@
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="59"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="58"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="50"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="52"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="51"/>
       <c r="M107" s="3"/>
       <c r="N107" s="2"/>
     </row>
@@ -2997,88 +2988,89 @@
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="57"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="56"/>
       <c r="F108" s="4"/>
       <c r="G108" s="10"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="51"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="50"/>
       <c r="J108" s="10"/>
-      <c r="K108" s="51"/>
-      <c r="L108" s="52"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="51"/>
       <c r="M108" s="3"/>
       <c r="N108" s="2"/>
     </row>
     <row r="109" spans="1:14" s="16" customFormat="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="72"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
-      <c r="K109" s="73"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="75"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="68"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="70"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
+      <c r="K109" s="72"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="73"/>
+      <c r="N109" s="74"/>
     </row>
     <row r="110" spans="1:14" s="16" customFormat="1">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="60"/>
-      <c r="H110" s="42"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="59"/>
+      <c r="H110" s="41"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
       <c r="K110" s="17"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="44"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="43"/>
     </row>
     <row r="111" spans="1:14" s="16" customFormat="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="60"/>
-      <c r="H111" s="42"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="59"/>
+      <c r="H111" s="41"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
       <c r="K111" s="17"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="44"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="43"/>
     </row>
     <row r="112" spans="1:14">
-      <c r="F112" s="60"/>
+      <c r="F112" s="59"/>
     </row>
     <row r="113" spans="1:14">
-      <c r="F113" s="60"/>
+      <c r="F113" s="59"/>
     </row>
     <row r="114" spans="1:14" s="16" customFormat="1">
       <c r="A114" s="12"/>
       <c r="B114" s="12"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="60"/>
-      <c r="H114" s="42"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="59"/>
+      <c r="H114" s="41"/>
       <c r="I114" s="17"/>
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
-      <c r="M114" s="43"/>
-      <c r="N114" s="44"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="I2:M2"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:A108">
     <cfRule type="duplicateValues" dxfId="0" priority="18" stopIfTrue="1"/>
